--- a/glossaire_variables.xlsx
+++ b/glossaire_variables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,7 +724,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>insuffissance_pondérale_T.1</t>
+          <t>insuffissance_pondérale_F</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>obésité_T</t>
+          <t>pop_15_24_pct</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -980,7 +980,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>obésité_M</t>
+          <t>population_total</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>obésité_F</t>
+          <t>obésité_T</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>activité_phisique_T</t>
+          <t>obésité_M</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1076,7 +1076,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>activité_phisique_M</t>
+          <t>obésité_F</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>activité_phisique_F</t>
+          <t>activité_phisique_T</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>surpoids_T</t>
+          <t>activité_phisique_M</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>surpoids_M</t>
+          <t>activité_phisique_F</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1204,30 +1204,94 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>surpoids_T</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Prévalence de surpoid adulte (Femelle)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>WDI/World Bank</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1990–2023</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Bénin</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>surpoids_M</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>population totale âge de 15-24 ans</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>World Bank</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1990–2023</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bénin</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>surpoids_F</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Prévalence de surpoid adulte (Femelle)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>WDI/World Bank</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1990–2023</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Population Total</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>World Bank</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1990–2023</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Bénin</t>
         </is>
